--- a/Method_gmoverId.xlsx
+++ b/Method_gmoverId.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Specification</t>
   </si>
@@ -40,9 +40,6 @@
     <t>MHz</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>pF</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Design of Common-Source Amplifier using gm/Id</t>
   </si>
   <si>
     <t>nm</t>
@@ -204,15 +198,6 @@
     <t>Performance of amplifier</t>
   </si>
   <si>
-    <t>Av [dB]</t>
-  </si>
-  <si>
-    <t>Power [W]</t>
-  </si>
-  <si>
-    <t>44.87E-9</t>
-  </si>
-  <si>
     <t>Topology</t>
   </si>
   <si>
@@ -220,14 +205,27 @@
   </si>
   <si>
     <t>Supply voltage [V]</t>
+  </si>
+  <si>
+    <t>Av [v/v]</t>
+  </si>
+  <si>
+    <t>Design of Common-Source Stage with Resistive Load using gm/Id</t>
+  </si>
+  <si>
+    <t>C_L</t>
+  </si>
+  <si>
+    <t>Power [pW]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -376,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,16 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -424,6 +416,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,25 +437,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,8 +491,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>7019</xdr:rowOff>
     </xdr:to>
@@ -520,7 +530,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>133458</xdr:rowOff>
     </xdr:to>
@@ -829,31 +839,31 @@
   <sheetData>
     <row r="5" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="3:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>25</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>5</v>
       </c>
     </row>
@@ -869,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD160" sqref="BD160"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,66 +890,67 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
@@ -947,32 +958,32 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <f>2*3.1416*$B$5*$B$6</f>
         <v>628.31999999999994</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2">
         <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
@@ -980,251 +991,257 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13" t="s">
-        <v>36</v>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="2">
         <v>15.319800000000001</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <f>$F$4/$B$9</f>
         <v>41.887999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="13" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="J6" s="2">
         <v>28.091999999999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
         <f>ROUNDDOWN(F6,0)</f>
         <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="23">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="18">
         <v>7.36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
         <f>$F$4/$F$7</f>
         <v>15.324878048780485</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9">
         <f>$F$4/$J$5</f>
         <v>41.013590255747459</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <f>Operating_regime!$D$8</f>
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="25">
-        <f>10^6/(2*3.1416*B5*B6)</f>
-        <v>1591.5457091927681</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="10">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="26">
+        <f>J6/F4*10^6</f>
+        <v>44709.702062643242</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8">
         <f>$J$7/$J$8</f>
         <v>0.17945271199388849</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <f>10^($B$4/20)</f>
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
         <f>B5/B10</f>
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="H10" s="29">
+        <f>10^6/(2*PI()*F9*B6)</f>
+        <v>3.5597406323330372</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="2">
         <f>F10/10</f>
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="28">
+        <f>H10/10</f>
+        <v>0.35597406323330372</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1244,50 +1261,51 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <f>CS_w_resistive_load!$J$6</f>
         <v>28.091999999999999</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
+      <c r="D5" s="30">
+        <f>0.0000000008963/10^-12</f>
+        <v>896.30000000000007</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>CS_w_resistive_load!$B$7</f>
